--- a/Jogos_do_Dia/2023-10-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4.35</v>
       </c>
       <c r="J2" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="K2" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.62</v>
@@ -712,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>2.15</v>
@@ -830,13 +830,13 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -857,10 +857,10 @@
         <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
@@ -1108,13 +1108,13 @@
         <v>2.63</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>2.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1208,6 +1208,145 @@
       </c>
       <c r="AQ5" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
